--- a/biology/Botanique/Allium_cernuum/Allium_cernuum.xlsx
+++ b/biology/Botanique/Allium_cernuum/Allium_cernuum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ail penché
 Allium cernuum, l’Ail penché, est une espèce de plantes vivaces de la famille des Amaryllidaceae. Elle pousse en Amérique du Nord dans les zones ouvertes.
@@ -512,10 +524,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce porte en français le nom vernaculaire ou normalisé d'ail penché[1].
-En anglais, elle est appelée nodding onion (« ail penché ») et lady's leek (« poireau de la dame »)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce porte en français le nom vernaculaire ou normalisé d'ail penché.
+En anglais, elle est appelée nodding onion (« ail penché ») et lady's leek (« poireau de la dame »).
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est principalement présente dans une grande partie des États-Unis, du Canada et du Mexique, y compris dans les Appalaches, de l'Alabama à l'État de New York, la région des Grands Lacs, les vallées de l'Ohio et du Tennessee, les monts Ozarks de l'Arkansas et du Missouri, les montagnes Rocheuses et la chaîne des Cascades de l'Ouest, du Mexique à Washington. Au Canada, elle pousse en Ontario et en Colombie-Britannique[3],[4]. Mais, malgré une large répartition géographique, elle est absente dans une grande partie de son aire principale.
-En Amérique du Nord, elle se limite aux habitats montagneux dans la partie sud de son aire de répartition et n'est présente ailleurs qu'en populations isolées[5]. On peut la trouver dans les clairières des forêts de feuillus[5]. Au Minnesota, elle est considérée comme menacée[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est principalement présente dans une grande partie des États-Unis, du Canada et du Mexique, y compris dans les Appalaches, de l'Alabama à l'État de New York, la région des Grands Lacs, les vallées de l'Ohio et du Tennessee, les monts Ozarks de l'Arkansas et du Missouri, les montagnes Rocheuses et la chaîne des Cascades de l'Ouest, du Mexique à Washington. Au Canada, elle pousse en Ontario et en Colombie-Britannique,. Mais, malgré une large répartition géographique, elle est absente dans une grande partie de son aire principale.
+En Amérique du Nord, elle se limite aux habitats montagneux dans la partie sud de son aire de répartition et n'est présente ailleurs qu'en populations isolées. On peut la trouver dans les clairières des forêts de feuillus. Au Minnesota, elle est considérée comme menacée. 
 Elle a été introduite en Grande-Bretagne.
 </t>
         </is>
@@ -577,9 +593,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium cernuum est une vivace herbacée poussant à partir d'un bulbe conique allongé non gainé qui se rétrécit progressivement directement en plusieurs feuilles herbacées carénées (fines et plates), 2-4 mm de largeur. Chaque bulbe mature porte une seule tige fleurie, qui se termine par une ombelle inclinée vers le bas de fleurs campanulées (en forme de cloche) blanches ou roses qui fleurissent en juillet et août. Les fleurs sont disposées en ombelles orientées vers le bas et chaque fleur mesure environ 5 mm de diamètre, rose ou blanche avec du pollen et des anthères jaunes. A. cernuum n'a pas de bulbilles dans l'inflorescence[5]. Les fruits ont une crête sphérique qui s'ouvre ensuite pour laisser apparaître des graines sombres et brillantes[7],[8],[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium cernuum est une vivace herbacée poussant à partir d'un bulbe conique allongé non gainé qui se rétrécit progressivement directement en plusieurs feuilles herbacées carénées (fines et plates), 2-4 mm de largeur. Chaque bulbe mature porte une seule tige fleurie, qui se termine par une ombelle inclinée vers le bas de fleurs campanulées (en forme de cloche) blanches ou roses qui fleurissent en juillet et août. Les fleurs sont disposées en ombelles orientées vers le bas et chaque fleur mesure environ 5 mm de diamètre, rose ou blanche avec du pollen et des anthères jaunes. A. cernuum n'a pas de bulbilles dans l'inflorescence. Les fruits ont une crête sphérique qui s'ouvre ensuite pour laisser apparaître des graines sombres et brillantes.
 </t>
         </is>
       </c>
